--- a/election_votar_data/LOHAGARA/PADUA/152579/152579_com_2073_male_without_photo_116_2025-11-24.pdf.xlsx
+++ b/election_votar_data/LOHAGARA/PADUA/152579/152579_com_2073_male_without_photo_116_2025-11-24.pdf.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="44" customWidth="1" min="4" max="4"/>
     <col width="33.5" customWidth="1" min="5" max="5"/>
-    <col width="29.5" customWidth="1" min="6" max="6"/>
+    <col width="47" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -26691,7 +26691,7 @@
       </c>
       <c r="F625" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ: ০৮/০৯/২০০১</t>
         </is>
       </c>
       <c r="G625" s="3" t="inlineStr">
@@ -64951,7 +64951,11 @@
           <t>ফাতেমা বেগম</t>
         </is>
       </c>
-      <c r="F1536" s="3" t="inlineStr"/>
+      <c r="F1536" s="3" t="inlineStr">
+        <is>
+          <t>জন্ম তারিখ: ১২/০৩/১৯৯৯</t>
+        </is>
+      </c>
       <c r="G1536" s="3" t="inlineStr">
         <is>
           <t>১২/০৩/১৯৯৯</t>
